--- a/modelowanie-danych-ćwiczenia/model_logiczny.xlsx
+++ b/modelowanie-danych-ćwiczenia/model_logiczny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-013-20\Downloads\StudyFolder\modelowanie-danych-ćwiczenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\School\2.2\StudyFolder\modelowanie-danych-ćwiczenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2C9B4C-8158-4317-95BD-502F48793D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55C442-67BE-4CCB-9729-42E9A2926076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>Krotność</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Klucz obcy</t>
   </si>
   <si>
-    <t>tabela</t>
-  </si>
-  <si>
     <t>orders</t>
   </si>
   <si>
@@ -107,6 +104,81 @@
   </si>
   <si>
     <t>tabela podzbiór</t>
+  </si>
+  <si>
+    <t>order_no</t>
+  </si>
+  <si>
+    <t>char(15)</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>order_value</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item_value</t>
+  </si>
+  <si>
+    <t>flavors</t>
+  </si>
+  <si>
+    <t>???????????????????????????????????????????????????</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>portions</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>container_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>char(11)</t>
+  </si>
+  <si>
+    <t>color_name</t>
   </si>
 </sst>
 </file>
@@ -173,18 +245,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -228,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,9 +340,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,26 +375,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,26 +410,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,16 +589,16 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -568,52 +606,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -634,18 +672,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -668,97 +706,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -779,351 +817,536 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1142,14 +1365,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1163,43 +1386,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/modelowanie-danych-ćwiczenia/model_logiczny.xlsx
+++ b/modelowanie-danych-ćwiczenia/model_logiczny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\School\2.2\StudyFolder\modelowanie-danych-ćwiczenia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-122-11\Desktop\StudyFolder\modelowanie-danych-ćwiczenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55C442-67BE-4CCB-9729-42E9A2926076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F5848-5B9D-4F59-B5E3-D5AC4013F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="80">
   <si>
     <t>Krotność</t>
   </si>
@@ -106,18 +106,12 @@
     <t>tabela podzbiór</t>
   </si>
   <si>
-    <t>order_no</t>
-  </si>
-  <si>
     <t>char(15)</t>
   </si>
   <si>
     <t>order_date</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>order_value</t>
   </si>
   <si>
@@ -130,21 +124,12 @@
     <t>flavors</t>
   </si>
   <si>
-    <t>???????????????????????????????????????????????????</t>
-  </si>
-  <si>
     <t>toppings</t>
   </si>
   <si>
-    <t>portions</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>volume</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -160,25 +145,127 @@
     <t>type</t>
   </si>
   <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
-    <t>char(11)</t>
-  </si>
-  <si>
-    <t>color_name</t>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>tabela walidacyjna</t>
+  </si>
+  <si>
+    <t>items_flavors</t>
+  </si>
+  <si>
+    <t>item_flavors</t>
+  </si>
+  <si>
+    <t>klucz obcy</t>
+  </si>
+  <si>
+    <t>items_toppings</t>
+  </si>
+  <si>
+    <t>item_toppings</t>
+  </si>
+  <si>
+    <t>topping</t>
+  </si>
+  <si>
+    <t>servings</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>cone_flavors</t>
+  </si>
+  <si>
+    <t>cone_types</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>cup_materials</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+  </si>
+  <si>
+    <t>char(7)</t>
+  </si>
+  <si>
+    <t>tabela z danymi</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>color, rgb</t>
+  </si>
+  <si>
+    <t>superklucz - każdy zestaw pól (1+), który umożliwia jednoznaczną identyfikację rekordu (nawet jak zawiera nadmiarowe dane)</t>
+  </si>
+  <si>
+    <t>cop+color</t>
+  </si>
+  <si>
+    <t>item+flavor</t>
+  </si>
+  <si>
+    <t>item+topping</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>obojętnie</t>
+  </si>
+  <si>
+    <t>bo bez dziwnych znaków i bardziej jednolity generalnie</t>
+  </si>
+  <si>
+    <t>cup+color</t>
+  </si>
+  <si>
+    <t>klucz podstawowy</t>
+  </si>
+  <si>
+    <t>obcy klucz podstawowy</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>restrykcyjna</t>
+  </si>
+  <si>
+    <t>kaskadowa</t>
+  </si>
+  <si>
+    <t>Kolejność</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -202,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +299,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,9 +359,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -300,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,9 +452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +487,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,9 +539,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,72 +732,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -666,24 +957,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -706,104 +997,304 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -817,21 +1308,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -839,7 +1330,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -852,56 +1343,73 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -909,7 +1417,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -923,430 +1431,664 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>41</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="C54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D45"/>
+  <mergeCells count="14">
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1359,20 +2101,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1386,47 +2128,182 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
